--- a/biology/Zoologie/Cnemaspis_menikay/Cnemaspis_menikay.xlsx
+++ b/biology/Zoologie/Cnemaspis_menikay/Cnemaspis_menikay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis menikay est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis menikay est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sri Lanka[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis menikay mesure jusqu'à 28,0 mm, queue non comprise[1]. Sa face dorsale est brun sombre avec des points jaunâtres sur les flancs et une ligne médiane jaune sale. Le dessus de sa tête présente trois taches jaunes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis menikay mesure jusqu'à 28,0 mm, queue non comprise. Sa face dorsale est brun sombre avec des points jaunâtres sur les flancs et une ligne médiane jaune sale. Le dessus de sa tête présente trois taches jaunes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce vient du cingalais menikay, « joyau, objet de grande valeur... »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce vient du cingalais menikay, « joyau, objet de grande valeur... ».
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Manamendra-Arachchi, Batuwita &amp; Pethiyagoda, 2007 : A taxonomic revision of the Sri Lankan day-geckos (Reptilia: Gekkonidae: Cnemaspis), with description of new species from Sri Lanka and southern India. Zeylanica, vol. 7, n. 1, p. 9-122 (texte intégral).</t>
         </is>
